--- a/data/pca/factorExposure/factorExposure_2012-08-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002666331186601902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001872683536255794</v>
+      </c>
+      <c r="C2">
+        <v>0.02892995448888007</v>
+      </c>
+      <c r="D2">
+        <v>0.004234970080290472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.000625199405574587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006664326690615997</v>
+      </c>
+      <c r="C4">
+        <v>0.08377757313216519</v>
+      </c>
+      <c r="D4">
+        <v>0.06663957092625743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.006277310849340975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01517369125795289</v>
+      </c>
+      <c r="C6">
+        <v>0.1184537310046044</v>
+      </c>
+      <c r="D6">
+        <v>0.02007998445730368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00115543306845455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004988541481745714</v>
+      </c>
+      <c r="C7">
+        <v>0.05907927708017191</v>
+      </c>
+      <c r="D7">
+        <v>0.0313042943497679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007896602716533597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004949082758840491</v>
+      </c>
+      <c r="C8">
+        <v>0.03589249754580905</v>
+      </c>
+      <c r="D8">
+        <v>0.03908764387280439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0003391829095687679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005600265973700687</v>
+      </c>
+      <c r="C9">
+        <v>0.07212411157215474</v>
+      </c>
+      <c r="D9">
+        <v>0.07205725700177601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.000773705495884264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002020873475290747</v>
+      </c>
+      <c r="C10">
+        <v>0.0519443149493519</v>
+      </c>
+      <c r="D10">
+        <v>-0.1849789836438113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0007020062638926491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005983117919632066</v>
+      </c>
+      <c r="C11">
+        <v>0.08083901926763883</v>
+      </c>
+      <c r="D11">
+        <v>0.06648001114486107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000498942329518573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004500245166710909</v>
+      </c>
+      <c r="C12">
+        <v>0.06510966477884934</v>
+      </c>
+      <c r="D12">
+        <v>0.05021344806661489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002154125503333421</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008701873008676848</v>
+      </c>
+      <c r="C13">
+        <v>0.07107415359364172</v>
+      </c>
+      <c r="D13">
+        <v>0.05702847125722919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001582221011133329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007869246116576358</v>
+      </c>
+      <c r="C14">
+        <v>0.04341093039835757</v>
+      </c>
+      <c r="D14">
+        <v>0.01010610525886231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001777876086128617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005922569601491266</v>
+      </c>
+      <c r="C15">
+        <v>0.04076956935423681</v>
+      </c>
+      <c r="D15">
+        <v>0.02673446549082176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0004158613919170671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005445195721422143</v>
+      </c>
+      <c r="C16">
+        <v>0.06483606400068413</v>
+      </c>
+      <c r="D16">
+        <v>0.05837279104526399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00292362150193469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008846593175836266</v>
+      </c>
+      <c r="C20">
+        <v>0.06416152799838538</v>
+      </c>
+      <c r="D20">
+        <v>0.05142706711334305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005572709708332553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009303895447696336</v>
+      </c>
+      <c r="C21">
+        <v>0.02015293644581628</v>
+      </c>
+      <c r="D21">
+        <v>0.03853180260492815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02055943748300108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.008137381184560222</v>
+      </c>
+      <c r="C22">
+        <v>0.08661369300116002</v>
+      </c>
+      <c r="D22">
+        <v>0.1274500962748315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02022259979268771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007844890677324301</v>
+      </c>
+      <c r="C23">
+        <v>0.08702123020662691</v>
+      </c>
+      <c r="D23">
+        <v>0.1285621180942344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001008577667877393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005977232008048542</v>
+      </c>
+      <c r="C24">
+        <v>0.07726148994921214</v>
+      </c>
+      <c r="D24">
+        <v>0.06702108477896822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002542298670110684</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003476676144085742</v>
+      </c>
+      <c r="C25">
+        <v>0.07821852320677099</v>
+      </c>
+      <c r="D25">
+        <v>0.06552915413013979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001162982459530186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003549331126382885</v>
+      </c>
+      <c r="C26">
+        <v>0.03951408381675178</v>
+      </c>
+      <c r="D26">
+        <v>0.02114686704577224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006668749385411859</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002288548059113932</v>
+      </c>
+      <c r="C28">
+        <v>0.1026396767888133</v>
+      </c>
+      <c r="D28">
+        <v>-0.324437998742482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006062533735880421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003194056136681445</v>
+      </c>
+      <c r="C29">
+        <v>0.04749286526034399</v>
+      </c>
+      <c r="D29">
+        <v>0.009793989342551802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002640780884736613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00922142077973271</v>
+      </c>
+      <c r="C30">
+        <v>0.1408085263469847</v>
+      </c>
+      <c r="D30">
+        <v>0.1075581675602913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001982202121953608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006209666668417394</v>
+      </c>
+      <c r="C31">
+        <v>0.04391394686267748</v>
+      </c>
+      <c r="D31">
+        <v>0.03153977911859424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003380496040310568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004284373396883987</v>
+      </c>
+      <c r="C32">
+        <v>0.03873168499821268</v>
+      </c>
+      <c r="D32">
+        <v>0.02024381305744306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0004901223504710015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008841864295730775</v>
+      </c>
+      <c r="C33">
+        <v>0.09046954836705695</v>
+      </c>
+      <c r="D33">
+        <v>0.06192902780388429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0007455039476544339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004607726794870338</v>
+      </c>
+      <c r="C34">
+        <v>0.05818150489458021</v>
+      </c>
+      <c r="D34">
+        <v>0.05910280097220713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002275123221619599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005293008195750782</v>
+      </c>
+      <c r="C35">
+        <v>0.04072356982160646</v>
+      </c>
+      <c r="D35">
+        <v>0.01429184293153819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004322292841187288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001385933767393407</v>
+      </c>
+      <c r="C36">
+        <v>0.02522478175963503</v>
+      </c>
+      <c r="D36">
+        <v>0.02212787777589963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002771772380136698</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009048799352282399</v>
+      </c>
+      <c r="C38">
+        <v>0.04102197327619473</v>
+      </c>
+      <c r="D38">
+        <v>0.01454359371858098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01105665618199759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001897320860800961</v>
+      </c>
+      <c r="C39">
+        <v>0.112228826330496</v>
+      </c>
+      <c r="D39">
+        <v>0.0807300850556002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003983052189069823</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002674605559099737</v>
+      </c>
+      <c r="C40">
+        <v>0.09126856795235577</v>
+      </c>
+      <c r="D40">
+        <v>0.01753940357638208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002445135088053702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007531157362374119</v>
+      </c>
+      <c r="C41">
+        <v>0.04138281452838338</v>
+      </c>
+      <c r="D41">
+        <v>0.04035656279295013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001783238726589199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003968349465525032</v>
+      </c>
+      <c r="C43">
+        <v>0.05428011939500108</v>
+      </c>
+      <c r="D43">
+        <v>0.027081404009788</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007540048751378108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001841160923035127</v>
+      </c>
+      <c r="C44">
+        <v>0.1047149112100521</v>
+      </c>
+      <c r="D44">
+        <v>0.06743889320154232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001205595215437804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001572736014831164</v>
+      </c>
+      <c r="C46">
+        <v>0.03263001640139507</v>
+      </c>
+      <c r="D46">
+        <v>0.03341975644635284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001190552938090241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002802093109311971</v>
+      </c>
+      <c r="C47">
+        <v>0.0352744797698556</v>
+      </c>
+      <c r="D47">
+        <v>0.02175021652686419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004872246269398263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007593405605662689</v>
+      </c>
+      <c r="C48">
+        <v>0.03316207149153592</v>
+      </c>
+      <c r="D48">
+        <v>0.03039927168017617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005208955275934147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01741980340810823</v>
+      </c>
+      <c r="C49">
+        <v>0.1867272722560114</v>
+      </c>
+      <c r="D49">
+        <v>0.008569896534635598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002009196697429515</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004055406172664968</v>
+      </c>
+      <c r="C50">
+        <v>0.04264640595265439</v>
+      </c>
+      <c r="D50">
+        <v>0.03897449070292917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.530485442560972e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00384841554172803</v>
+      </c>
+      <c r="C51">
+        <v>0.02651757509733467</v>
+      </c>
+      <c r="D51">
+        <v>0.0244183920485618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008879710513585347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02161085988144682</v>
+      </c>
+      <c r="C53">
+        <v>0.171770459680372</v>
+      </c>
+      <c r="D53">
+        <v>0.02071382320876328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003555601234209664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009459028236690739</v>
+      </c>
+      <c r="C54">
+        <v>0.05684989298819648</v>
+      </c>
+      <c r="D54">
+        <v>0.04039015640431232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002087545802333426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01010453262480434</v>
+      </c>
+      <c r="C55">
+        <v>0.1085779409849689</v>
+      </c>
+      <c r="D55">
+        <v>0.03554317968201629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009663468224776645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02154738819536837</v>
+      </c>
+      <c r="C56">
+        <v>0.1745225867372413</v>
+      </c>
+      <c r="D56">
+        <v>0.01484308051601074</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001181274541566039</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01649133661516686</v>
+      </c>
+      <c r="C58">
+        <v>0.1070814206460334</v>
+      </c>
+      <c r="D58">
+        <v>0.0665618117558128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002659263796706565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009296643141349314</v>
+      </c>
+      <c r="C59">
+        <v>0.1679367676357963</v>
+      </c>
+      <c r="D59">
+        <v>-0.3463895936703448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.009003746432438838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02633075473068503</v>
+      </c>
+      <c r="C60">
+        <v>0.2237240635674032</v>
+      </c>
+      <c r="D60">
+        <v>0.01590929532116098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009987734005729788</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002061966877218614</v>
+      </c>
+      <c r="C61">
+        <v>0.09395122877105243</v>
+      </c>
+      <c r="D61">
+        <v>0.05876472823115757</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1498125493719328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1526937000145425</v>
+      </c>
+      <c r="C62">
+        <v>0.1016501545767355</v>
+      </c>
+      <c r="D62">
+        <v>0.01691676779635709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001391422832863714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006586400298348239</v>
+      </c>
+      <c r="C63">
+        <v>0.05360850335759753</v>
+      </c>
+      <c r="D63">
+        <v>0.033795146438468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01074648305004344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01698605661886183</v>
+      </c>
+      <c r="C64">
+        <v>0.1063341700712736</v>
+      </c>
+      <c r="D64">
+        <v>0.05310735766469287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.009078451405666356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01808717971798711</v>
+      </c>
+      <c r="C65">
+        <v>0.1203544016689483</v>
+      </c>
+      <c r="D65">
+        <v>0.02613288931715058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0007458122460286789</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01306738147006914</v>
+      </c>
+      <c r="C66">
+        <v>0.1603803114124877</v>
+      </c>
+      <c r="D66">
+        <v>0.1133660046228085</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006041205703197865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01548369338794669</v>
+      </c>
+      <c r="C67">
+        <v>0.07352735261338335</v>
+      </c>
+      <c r="D67">
+        <v>0.0257683496345828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004734753930157254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-3.202187205580278e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08459869294345727</v>
+      </c>
+      <c r="D68">
+        <v>-0.2584276438982322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002259088378964201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00615429625812106</v>
+      </c>
+      <c r="C69">
+        <v>0.05221057259025671</v>
+      </c>
+      <c r="D69">
+        <v>0.03763148933079821</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001445019241310871</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002550946683261723</v>
+      </c>
+      <c r="C70">
+        <v>0.00844903335092057</v>
+      </c>
+      <c r="D70">
+        <v>-0.001181145808404106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0003796901131430061</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004571484212481731</v>
+      </c>
+      <c r="C71">
+        <v>0.08902908886319084</v>
+      </c>
+      <c r="D71">
+        <v>-0.301076658619914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005500595476165511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01832198667587348</v>
+      </c>
+      <c r="C72">
+        <v>0.1587755724739501</v>
+      </c>
+      <c r="D72">
+        <v>0.006497628503910453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01006144601135644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03120011116947086</v>
+      </c>
+      <c r="C73">
+        <v>0.2819658580553086</v>
+      </c>
+      <c r="D73">
+        <v>0.05514737851515147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005110762626565436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002071148431890044</v>
+      </c>
+      <c r="C74">
+        <v>0.103126436103147</v>
+      </c>
+      <c r="D74">
+        <v>0.03304718804265311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0003577446529007125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01163972851971067</v>
+      </c>
+      <c r="C75">
+        <v>0.1206182000359097</v>
+      </c>
+      <c r="D75">
+        <v>0.02740096739968347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01134975216503391</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0219705350283768</v>
+      </c>
+      <c r="C76">
+        <v>0.1460921275117882</v>
+      </c>
+      <c r="D76">
+        <v>0.05680663858181525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007250883451076148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02135331247486179</v>
+      </c>
+      <c r="C77">
+        <v>0.1100954509726461</v>
+      </c>
+      <c r="D77">
+        <v>0.04734875890227199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004799688571461349</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01432255791793678</v>
+      </c>
+      <c r="C78">
+        <v>0.09874800952667868</v>
+      </c>
+      <c r="D78">
+        <v>0.08168313735250567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0279553126262186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03931263623869165</v>
+      </c>
+      <c r="C79">
+        <v>0.1574422887427655</v>
+      </c>
+      <c r="D79">
+        <v>0.02939433829473219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006327014845940308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.00943615096249378</v>
+      </c>
+      <c r="C80">
+        <v>0.03996208927814711</v>
+      </c>
+      <c r="D80">
+        <v>0.03191655582468059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005468320005843233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01629019470048762</v>
+      </c>
+      <c r="C81">
+        <v>0.130850121079992</v>
+      </c>
+      <c r="D81">
+        <v>0.03729636550213441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008400195956461907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01983616010807946</v>
+      </c>
+      <c r="C82">
+        <v>0.1366756134811818</v>
+      </c>
+      <c r="D82">
+        <v>0.03658751827798367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003629438254928424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01226935177019708</v>
+      </c>
+      <c r="C83">
+        <v>0.06466516329971597</v>
+      </c>
+      <c r="D83">
+        <v>0.04549135370005357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004202100255160134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006407212695195037</v>
+      </c>
+      <c r="C84">
+        <v>0.03488649275876012</v>
+      </c>
+      <c r="D84">
+        <v>0.01182216257839104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01938115261628685</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02923213527361826</v>
+      </c>
+      <c r="C85">
+        <v>0.1236593023989418</v>
+      </c>
+      <c r="D85">
+        <v>0.03972202216835388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002218232284350142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003901138663229225</v>
+      </c>
+      <c r="C86">
+        <v>0.050794787092793</v>
+      </c>
+      <c r="D86">
+        <v>0.02625823726399835</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001773941203373144</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01164794541852371</v>
+      </c>
+      <c r="C87">
+        <v>0.1286517326957683</v>
+      </c>
+      <c r="D87">
+        <v>0.07261076043007203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008355944131430159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002898076964756539</v>
+      </c>
+      <c r="C88">
+        <v>0.0635309410806499</v>
+      </c>
+      <c r="D88">
+        <v>0.0290511795061702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01145547626931139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003218578867994549</v>
+      </c>
+      <c r="C89">
+        <v>0.134156662945873</v>
+      </c>
+      <c r="D89">
+        <v>-0.3173333855277598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002151190144883309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005409448776685853</v>
+      </c>
+      <c r="C90">
+        <v>0.1155902869182405</v>
+      </c>
+      <c r="D90">
+        <v>-0.314185945870732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002827886272428648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01128117016406606</v>
+      </c>
+      <c r="C91">
+        <v>0.09896368654356628</v>
+      </c>
+      <c r="D91">
+        <v>0.02999921313893783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005845963359396076</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0004850353748718629</v>
+      </c>
+      <c r="C92">
+        <v>0.1295188694807653</v>
+      </c>
+      <c r="D92">
+        <v>-0.3258614992928641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001901348025309048</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003005991201532553</v>
+      </c>
+      <c r="C93">
+        <v>0.1038294363330377</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011630316837541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01050524708941378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02227159108779054</v>
+      </c>
+      <c r="C94">
+        <v>0.1399523468684818</v>
+      </c>
+      <c r="D94">
+        <v>0.0554423273286711</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007207112438258956</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01600272013171709</v>
+      </c>
+      <c r="C95">
+        <v>0.1204290474593951</v>
+      </c>
+      <c r="D95">
+        <v>0.06771680125273889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01764775355770092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03747213580164247</v>
+      </c>
+      <c r="C97">
+        <v>0.2253470049416874</v>
+      </c>
+      <c r="D97">
+        <v>-0.001623062488066235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01266123891822358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03940528806315844</v>
+      </c>
+      <c r="C98">
+        <v>0.2616018188471194</v>
+      </c>
+      <c r="D98">
+        <v>0.02897247250245814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9864308914352722</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806187257506177</v>
+      </c>
+      <c r="C99">
+        <v>-0.1211824802311327</v>
+      </c>
+      <c r="D99">
+        <v>-0.02495484135380652</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006303985610565508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003186559271539438</v>
+      </c>
+      <c r="C101">
+        <v>0.04767331058544196</v>
+      </c>
+      <c r="D101">
+        <v>0.01046526134009267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
